--- a/data/China/China_1800_(CMM-June2011).xlsx
+++ b/data/China/China_1800_(CMM-June2011).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rombert\Documents\GitHub\labrel\data\China\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="315" windowWidth="13395" windowHeight="12345"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Labour relations used" sheetId="2" r:id="rId2"/>
     <sheet name="Sources" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="217">
   <si>
     <t>NA</t>
   </si>
@@ -1938,9 +1943,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Yangzi Delta</t>
-  </si>
-  <si>
     <t>China (Territory of the Qing dynasty)</t>
   </si>
   <si>
@@ -1969,6 +1971,12 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Yangzi Delta (China (Territory of the Qing dynasty))</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
 </sst>
 </file>
@@ -2197,7 +2205,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2359,6 +2367,9 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma 2" xfId="3"/>
@@ -2366,7 +2377,57 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard_Blad1" xfId="2"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2729,7 +2790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2764,7 +2825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2975,9 +3036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI35" sqref="AI35"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3386,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L4" s="56">
         <v>267399111</v>
@@ -3517,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L5" s="56">
         <v>350291724</v>
@@ -3649,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L6" s="56">
         <v>327425413</v>
@@ -3781,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L7" s="56">
         <v>114598895</v>
@@ -3913,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L8" s="56">
         <v>22919779</v>
@@ -4045,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L9" s="56">
         <v>99474959</v>
@@ -4177,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L10" s="56">
         <v>90431781</v>
@@ -4309,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L11" s="56">
         <v>137518673</v>
@@ -4339,7 +4400,7 @@
         <v>99</v>
       </c>
       <c r="T11" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U11" s="26" t="s">
         <v>180</v>
@@ -4441,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L12" s="56">
         <v>153824459</v>
@@ -4471,7 +4532,7 @@
         <v>60</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U12" s="26" t="s">
         <v>181</v>
@@ -4573,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L13" s="56">
         <v>1899067</v>
@@ -4603,7 +4664,7 @@
         <v>60</v>
       </c>
       <c r="T13" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U13" s="26" t="s">
         <v>182</v>
@@ -4705,10 +4766,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L14" s="56">
         <v>3798135</v>
@@ -4735,7 +4796,7 @@
         <v>60</v>
       </c>
       <c r="T14" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U14" s="26" t="s">
         <v>183</v>
@@ -4837,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L15" s="56">
         <v>11394404</v>
@@ -4867,7 +4928,7 @@
         <v>60</v>
       </c>
       <c r="T15" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U15" s="26" t="s">
         <v>184</v>
@@ -4969,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L16" s="56">
         <v>1519254</v>
@@ -4999,7 +5060,7 @@
         <v>60</v>
       </c>
       <c r="T16" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U16" s="26" t="s">
         <v>185</v>
@@ -5101,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L17" s="56">
         <v>1899067</v>
@@ -5131,7 +5192,7 @@
         <v>60</v>
       </c>
       <c r="T17" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U17" s="26" t="s">
         <v>187</v>
@@ -5233,10 +5294,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L18" s="56">
         <v>1281870</v>
@@ -5263,7 +5324,7 @@
         <v>60</v>
       </c>
       <c r="T18" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U18" s="26" t="s">
         <v>188</v>
@@ -5365,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L19" s="56">
         <v>142430</v>
@@ -5395,7 +5456,7 @@
         <v>60</v>
       </c>
       <c r="T19" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U19" s="26" t="s">
         <v>189</v>
@@ -5497,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L20" s="56">
         <v>854580</v>
@@ -5527,7 +5588,7 @@
         <v>60</v>
       </c>
       <c r="T20" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U20" s="26" t="s">
         <v>190</v>
@@ -5629,10 +5690,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L21" s="56">
         <v>569720</v>
@@ -5659,7 +5720,7 @@
         <v>60</v>
       </c>
       <c r="T21" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U21" s="26" t="s">
         <v>191</v>
@@ -5761,10 +5822,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L22" s="56">
         <v>1025496</v>
@@ -5791,7 +5852,7 @@
         <v>60</v>
       </c>
       <c r="T22" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U22" s="26" t="s">
         <v>192</v>
@@ -5893,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L23" s="56">
         <v>113944</v>
@@ -5923,7 +5984,7 @@
         <v>60</v>
       </c>
       <c r="T23" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U23" s="26" t="s">
         <v>193</v>
@@ -6025,10 +6086,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L24" s="56">
         <v>683664</v>
@@ -6055,7 +6116,7 @@
         <v>60</v>
       </c>
       <c r="T24" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U24" s="26" t="s">
         <v>194</v>
@@ -6157,10 +6218,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L25" s="56">
         <v>455776</v>
@@ -6187,7 +6248,7 @@
         <v>60</v>
       </c>
       <c r="T25" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U25" s="26" t="s">
         <v>195</v>
@@ -6289,10 +6350,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L26" s="56">
         <v>748601</v>
@@ -6319,7 +6380,7 @@
         <v>60</v>
       </c>
       <c r="T26" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U26" s="26" t="s">
         <v>196</v>
@@ -6421,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L27" s="56">
         <v>1000000</v>
@@ -6451,7 +6512,7 @@
         <v>60</v>
       </c>
       <c r="T27" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U27" s="26" t="s">
         <v>197</v>
@@ -6553,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L28" s="56">
         <v>100000</v>
@@ -6583,7 +6644,7 @@
         <v>60</v>
       </c>
       <c r="T28" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U28" s="26" t="s">
         <v>198</v>
@@ -6685,10 +6746,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L29" s="56">
         <v>1000000</v>
@@ -6715,7 +6776,7 @@
         <v>60</v>
       </c>
       <c r="T29" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U29" s="26" t="s">
         <v>199</v>
@@ -6816,10 +6877,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L30" s="56">
         <v>1899067</v>
@@ -6846,7 +6907,7 @@
         <v>60</v>
       </c>
       <c r="T30" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U30" s="26" t="s">
         <v>200</v>
@@ -6947,10 +7008,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L31" s="56">
         <v>3798138</v>
@@ -6977,7 +7038,7 @@
         <v>60</v>
       </c>
       <c r="T31" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U31" s="26" t="s">
         <v>201</v>
@@ -7078,10 +7139,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L32" s="56">
         <v>949534</v>
@@ -7108,7 +7169,7 @@
         <v>60</v>
       </c>
       <c r="T32" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U32" s="26" t="s">
         <v>202</v>
@@ -7209,10 +7270,10 @@
         <v>204</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L33" s="56">
         <v>1445300</v>
@@ -7278,28 +7339,28 @@
         <v>0</v>
       </c>
       <c r="AG33" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH33" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="58">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="AH33" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="26" t="s">
-        <v>208</v>
       </c>
       <c r="AS33" s="49">
         <f>IF(COUNTA('Labour relations used'!B33)=0,"",'Labour relations used'!B33)</f>
@@ -7334,16 +7395,16 @@
         <v>-1</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="J34" s="22" t="s">
-        <v>205</v>
+      <c r="J34" s="59" t="s">
+        <v>215</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L34" s="56">
         <v>679000</v>
@@ -7409,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH34" s="43" t="s">
         <v>0</v>
@@ -7465,16 +7526,16 @@
         <v>-1</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="26" t="s">
-        <v>205</v>
+      <c r="J35" s="59" t="s">
+        <v>215</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L35" s="56">
         <v>354350</v>
@@ -7501,13 +7562,13 @@
         <v>99</v>
       </c>
       <c r="T35" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U35" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="V35" s="43" t="s">
         <v>211</v>
-      </c>
-      <c r="V35" s="43" t="s">
-        <v>212</v>
       </c>
       <c r="W35" s="26" t="s">
         <v>0</v>
@@ -7531,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE35" s="43">
         <v>300014</v>
@@ -7540,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH35" s="43">
         <v>12014</v>
@@ -7602,10 +7663,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L36" s="56">
         <v>949534</v>
@@ -7632,10 +7693,10 @@
         <v>60</v>
       </c>
       <c r="T36" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U36" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V36" s="44">
         <v>1</v>
@@ -7727,126 +7788,126 @@
     <protectedRange sqref="A4:AN36" name="Data"/>
   </protectedRanges>
   <conditionalFormatting sqref="E4:E36">
-    <cfRule type="cellIs" dxfId="28" priority="47" operator="notBetween">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="notBetween">
       <formula>0</formula>
       <formula>2020</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L36">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>OR(AND(L4&lt;0,NOT(L4=-99999998)),ISTEXT(L4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N36">
-    <cfRule type="cellIs" dxfId="26" priority="45" operator="notBetween">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="notBetween">
       <formula>-1</formula>
       <formula>100000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R36">
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="notBetween">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="notBetween">
       <formula>0</formula>
       <formula>98</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S36">
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="notBetween">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="notBetween">
       <formula>1</formula>
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE36">
-    <cfRule type="expression" dxfId="23" priority="41">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>NOT(IFERROR(VLOOKUP(AE4,AU:AU,1,FALSE),FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI36 AK4:AK36 AM4:AM36">
-    <cfRule type="cellIs" dxfId="22" priority="37" operator="notBetween">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="notBetween">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN4:AN36 Y4:AD36 W4:W36 U4:U36 J4:K36 H4:H36">
-    <cfRule type="expression" dxfId="21" priority="32">
+  <conditionalFormatting sqref="AN4:AN36 Y4:AD36 W4:W36 U4:U36 H4:H36 J4:K36">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>NOT(ISTEXT(H4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I36">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>NOT(OR(I4="Y",I4="N",I4="NA"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O36">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>NOT(OR(O4="A",O4="C",O4="E"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P36">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>NOT(OR(P4="T",P4="M",P4="F",P4="U"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q36">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>NOT(OR(Q4="M",Q4="S",Q4="W",Q4="D",Q4="T",Q4="U"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T36">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>NOT(OR(T4="P",T4="L",T4="Pa",T4="Pc",T4="Pd",T4="Pj",T4="Pac",T4="Pad",T4="Paj",T4="La",T4="Lc",T4="Ld",T4="Lj",T4="Lac",T4="Lad",T4="Laj"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X36">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>NOT(OR(AND(X4&gt;=10,X4&lt;=999),X4="NA"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:AN36">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>IF(OR(B4=-1,B4="NA",B4=-99999998),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="3">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI36 AK4:AK36 AM4:AM36">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>IF(AH4="NA",NOT(AI4=0),IF(COUNTA(AH4)=1,OR(AI4=0,NOT(($AI4+$AK4+$AM4)=1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D36 F4:G36">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="notEqual">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A36">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="9">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4:AL36">
-    <cfRule type="expression" dxfId="9" priority="33">
+    <cfRule type="expression" dxfId="15" priority="33">
       <formula>IF(AJ4="NA",NOT(AL4="NA"),NOT(OR(AL4="NA",IFERROR(VLOOKUP(AL4,AS:AS,1,FALSE),FALSE))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V36">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>NOT(OR(V4="NA",IFERROR(VLOOKUP(V4,AT:AT,1,FALSE),FALSE)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH36">
-    <cfRule type="expression" dxfId="7" priority="40">
+    <cfRule type="expression" dxfId="13" priority="40">
       <formula>NOT(OR(AH4="NA",IFERROR(VLOOKUP(AH4,AS:AS,1,FALSE),FALSE)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AJ36">
-    <cfRule type="expression" dxfId="6" priority="34">
+    <cfRule type="expression" dxfId="12" priority="34">
       <formula>IF(AH4="NA",NOT(AJ4="NA"),NOT(OR(AJ4="NA",IFERROR(VLOOKUP(AJ4,AS:AS,1,FALSE),FALSE))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B36">
-    <cfRule type="duplicateValues" dxfId="5" priority="141"/>
-    <cfRule type="cellIs" dxfId="4" priority="142" operator="notBetween">
+    <cfRule type="duplicateValues" dxfId="11" priority="141"/>
+    <cfRule type="cellIs" dxfId="10" priority="142" operator="notBetween">
       <formula>1</formula>
       <formula>100000000000000</formula>
     </cfRule>
@@ -8070,7 +8131,7 @@
         <v>113</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
@@ -8704,19 +8765,19 @@
     <protectedRange sqref="A4:F21" name="Sources"/>
   </protectedRanges>
   <conditionalFormatting sqref="E4:E21">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>NOT(OR(ISBLANK(E4),ISNUMBER(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A21">
-    <cfRule type="containsBlanks" dxfId="2" priority="52">
+    <cfRule type="containsBlanks" dxfId="8" priority="52">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="notBetween">
+    <cfRule type="cellIs" dxfId="7" priority="53" operator="notBetween">
       <formula>1</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="54"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
